--- a/current_IM_parameters.xlsx
+++ b/current_IM_parameters.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>Wide Swing Current Mirror Design Parameters</t>
   </si>
@@ -87,9 +87,6 @@
     <t>&lt;3nW</t>
   </si>
   <si>
-    <t xml:space="preserve">Using resistive current source </t>
-  </si>
-  <si>
     <t>Maximum voltage at Iin</t>
   </si>
   <si>
@@ -118,14 +115,72 @@
   </si>
   <si>
     <t>1.64V</t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Taken when </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vout</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 550mV at bottom of output range.</t>
+    </r>
+  </si>
+  <si>
+    <t>32k</t>
+  </si>
+  <si>
+    <t>525MHz</t>
+  </si>
+  <si>
+    <t>Does not apply to single input systems.</t>
+  </si>
+  <si>
+    <t>85dB</t>
+  </si>
+  <si>
+    <t>.04uA/K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using Resistive Current Source with Vdd = 1.8V.  </t>
+  </si>
+  <si>
+    <t>25MV/s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -451,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D3:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -547,40 +602,52 @@
       <c r="D19" t="s">
         <v>8</v>
       </c>
+      <c r="E19" t="s">
+        <v>39</v>
+      </c>
       <c r="F19" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="4:6">
       <c r="D21" t="s">
         <v>9</v>
       </c>
+      <c r="E21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="22" spans="4:6">
       <c r="D22" t="s">
         <v>10</v>
       </c>
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="24" spans="4:6">
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="4:6">
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="4:6">
@@ -588,10 +655,10 @@
         <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="4:6">
@@ -599,40 +666,61 @@
         <v>12</v>
       </c>
       <c r="E27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" t="s">
         <v>31</v>
-      </c>
-      <c r="F27" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="29" spans="4:6">
       <c r="D29" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="E29">
+        <v>51.25</v>
       </c>
     </row>
     <row r="30" spans="4:6">
       <c r="D30" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="E30" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="4:6">
       <c r="D31" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="4:4">
+        <v>27</v>
+      </c>
+      <c r="E31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6">
       <c r="D33" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="34" spans="4:4">
+      <c r="E33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6">
       <c r="D34" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="4:4">
+      <c r="E34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="4:6">
       <c r="D36" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="E36" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/current_IM_parameters.xlsx
+++ b/current_IM_parameters.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t>Wide Swing Current Mirror Design Parameters</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Total Leakage Power (mW)</t>
   </si>
   <si>
-    <t>Temperature Coefficient</t>
-  </si>
-  <si>
     <t>Output Resistance</t>
   </si>
   <si>
@@ -84,9 +81,6 @@
     <t>gate leakage current = 0.5nA, base leakage = 1pA  per transistor</t>
   </si>
   <si>
-    <t>&lt;3nW</t>
-  </si>
-  <si>
     <t>Maximum voltage at Iin</t>
   </si>
   <si>
@@ -103,9 +97,6 @@
   </si>
   <si>
     <t>Slew Rate</t>
-  </si>
-  <si>
-    <t>1.58V</t>
   </si>
   <si>
     <t>550mV</t>
@@ -158,13 +149,25 @@
     <t>85dB</t>
   </si>
   <si>
-    <t>.04uA/K</t>
-  </si>
-  <si>
     <t xml:space="preserve">Using Resistive Current Source with Vdd = 1.8V.  </t>
   </si>
   <si>
     <t>25MV/s</t>
+  </si>
+  <si>
+    <t>.18mW</t>
+  </si>
+  <si>
+    <t>.09mW</t>
+  </si>
+  <si>
+    <t>50nW</t>
+  </si>
+  <si>
+    <t>Temperature Coefficient (uAmps/Celsius)</t>
+  </si>
+  <si>
+    <t>vdd</t>
   </si>
 </sst>
 </file>
@@ -506,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D3:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -524,10 +527,10 @@
     </row>
     <row r="7" spans="4:6">
       <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
         <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10" spans="4:6">
@@ -538,7 +541,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="4:6">
@@ -549,7 +552,7 @@
         <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="4:6">
@@ -564,16 +567,19 @@
       <c r="D13" t="s">
         <v>4</v>
       </c>
+      <c r="E13">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" spans="4:6">
       <c r="D15" t="s">
         <v>5</v>
       </c>
       <c r="E15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" t="s">
         <v>19</v>
-      </c>
-      <c r="F15" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="16" spans="4:6">
@@ -581,10 +587,10 @@
         <v>6</v>
       </c>
       <c r="E16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" t="s">
         <v>19</v>
-      </c>
-      <c r="F16" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="17" spans="4:6">
@@ -592,89 +598,89 @@
         <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="4:6">
       <c r="D19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="E19">
+        <v>-0.04</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="4:6">
       <c r="D21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="4:6">
       <c r="D22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="4:6">
       <c r="D24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E24" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="4:6">
       <c r="D25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E25" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="4:6">
       <c r="D26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="4:6">
       <c r="D27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="4:6">
       <c r="D29" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>51.25</v>
@@ -682,45 +688,45 @@
     </row>
     <row r="30" spans="4:6">
       <c r="D30" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E30" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="4:6">
       <c r="D31" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E31" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="4:6">
       <c r="D33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="4:6">
       <c r="D34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E34" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="4:6">
       <c r="D36" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E36" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
